--- a/ig/CodeSystem-group-member-status.xlsx
+++ b/ig/CodeSystem-group-member-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-30T21:05:25+00:00</t>
+    <t>2021-12-08T16:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-group-member-status.xlsx
+++ b/ig/CodeSystem-group-member-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T16:36:19+00:00</t>
+    <t>2021-12-14T20:47:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-group-member-status.xlsx
+++ b/ig/CodeSystem-group-member-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-14T20:47:31+00:00</t>
+    <t>2022-03-11T19:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-group-member-status.xlsx
+++ b/ig/CodeSystem-group-member-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:19:27+00:00</t>
+    <t>2022-03-11T19:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-group-member-status.xlsx
+++ b/ig/CodeSystem-group-member-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T19:55:52+00:00</t>
+    <t>2022-04-11T17:12:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/CodeSystem-group-member-status.xlsx
+++ b/ig/CodeSystem-group-member-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T17:12:20+00:00</t>
+    <t>2022-04-12T17:10:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
